--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117245.0744367775</v>
+        <v>20830793.55263522</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117245.0744367775</v>
+        <v>20830793.55263522</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7214.429395368935</v>
+        <v>798803.2354520275</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7214.429395368935</v>
+        <v>798803.2354520275</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188679636.67891</v>
+        <v>48098910.95519572</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9163.037181324857</v>
+        <v>1053987.458052525</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17635.77615930637</v>
+        <v>2026285.546396813</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26213.03576543307</v>
+        <v>2998583.634741102</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34934.39269125919</v>
+        <v>3972716.435640526</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43797.65796282719</v>
+        <v>4946674.23345308</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52362.86229319304</v>
+        <v>5920632.031265633</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61108.78667096253</v>
+        <v>6894589.829078184</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69949.17804704586</v>
+        <v>7868547.626890735</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78604.24680709861</v>
+        <v>8802047.03110257</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87168.00131526106</v>
+        <v>9777022.175388539</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95674.40858394679</v>
+        <v>10749040.91095602</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104051.3689122156</v>
+        <v>11720123.17977253</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112369.7730877662</v>
+        <v>12691309.95966002</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121144.779841425</v>
+        <v>13604496.51457276</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130381.6082324522</v>
+        <v>14465316.62956367</v>
       </c>
     </row>
   </sheetData>
@@ -27043,22 +27043,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>374</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>361</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
